--- a/Data/2022-07-28_Morphology_Assay_stars.xlsx
+++ b/Data/2022-07-28_Morphology_Assay_stars.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -446,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,27 +434,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Body length (µm)</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Body length (µm)</t>
+          <t>Heart Rate (BPM)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Heart Rate (BPM)</t>
+          <t>Ejection fraction (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ejection fraction (%)</t>
+          <t>Number ISV (Count)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Number ISV (Count)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ISV area (µm^2)</t>
         </is>
@@ -484,11 +463,13 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>GSK-369796_1C03</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
+          <t>Papaverine_1C02</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -502,15 +483,10 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -519,15 +495,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Daclatasvir_1C04</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
+          <t>GSK-369796_1C03</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,15 +515,10 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -554,20 +527,22 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Lonafarnib_1C05</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
+          <t>Daclatasvir_1C04</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -576,11 +551,6 @@
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -589,20 +559,22 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Itraconazole_1C06</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
+          <t>Lonafarnib_1C05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -611,11 +583,6 @@
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -624,20 +591,22 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GSK 983_1C07</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
+          <t>Itraconazole_1C06</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,11 +615,6 @@
         </is>
       </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -659,15 +623,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Tioguanine_1C08</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
+          <t>GSK 983_1C07</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -681,11 +647,6 @@
         </is>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -694,11 +655,13 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Tomivosertib_1C09</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
+          <t>Tioguanine_1C08</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -716,11 +679,6 @@
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -729,11 +687,13 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>LY 2228820_1C10</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
+          <t>Tomivosertib_1C09</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -751,11 +711,6 @@
         </is>
       </c>
       <c r="F9" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -764,11 +719,13 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
+          <t>LY 2228820_1C10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -786,11 +743,6 @@
         </is>
       </c>
       <c r="F10" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -799,11 +751,13 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Tigecycline_1C11</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -821,11 +775,6 @@
         </is>
       </c>
       <c r="F11" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -834,11 +783,13 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Digoxin_1D02</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
+          <t>Tigecycline_1C11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -856,11 +807,6 @@
         </is>
       </c>
       <c r="F12" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -869,20 +815,22 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Amodiaquine_1D03</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
+          <t>Digoxin_1D02</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -891,11 +839,6 @@
         </is>
       </c>
       <c r="F13" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -904,66 +847,64 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
+          <t>Amodiaquine_1D03</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>***</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>*</t>
         </is>
       </c>
     </row>
@@ -973,17 +914,19 @@
           <t>Halofantrine_1D05</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>1</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -992,11 +935,6 @@
         </is>
       </c>
       <c r="F16" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1008,30 +946,27 @@
           <t>Ravuconazole_1D06</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1043,8 +978,10 @@
           <t>Tizoxanide_1D07</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1062,11 +999,6 @@
         </is>
       </c>
       <c r="F18" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1078,8 +1010,10 @@
           <t>Valproic Acid_1D08</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>1</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1097,11 +1031,6 @@
         </is>
       </c>
       <c r="F19" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1113,17 +1042,19 @@
           <t>Simeprevir_1D09</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>1</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1132,11 +1063,6 @@
         </is>
       </c>
       <c r="F20" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1148,12 +1074,14 @@
           <t>Favipiravir_1D10</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1167,11 +1095,6 @@
         </is>
       </c>
       <c r="F21" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1183,8 +1106,10 @@
           <t>Vidofludimus_1D11</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>1</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1202,11 +1127,6 @@
         </is>
       </c>
       <c r="F22" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1218,12 +1138,14 @@
           <t>Hydroxyprogesterone_1E02</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>1</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1237,11 +1159,6 @@
         </is>
       </c>
       <c r="F23" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1253,8 +1170,10 @@
           <t>Nafamostat_1E03</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>1</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1272,11 +1191,6 @@
         </is>
       </c>
       <c r="F24" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1288,8 +1202,10 @@
           <t>Amuvatinib_1E04</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>1</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1298,20 +1214,15 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1323,12 +1234,14 @@
           <t>Doxycycline_1E05</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>1</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1342,11 +1255,6 @@
         </is>
       </c>
       <c r="F26" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1358,8 +1266,10 @@
           <t>Emetine_1E06</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1368,20 +1278,15 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1393,8 +1298,10 @@
           <t>Triparanol_1E07</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>1</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1403,20 +1310,15 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1428,12 +1330,14 @@
           <t>Clomipramine_1E08</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1447,11 +1351,6 @@
         </is>
       </c>
       <c r="F29" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1463,8 +1362,10 @@
           <t>Sofosbuvir_1E09</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1473,20 +1374,15 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1498,8 +1394,10 @@
           <t>Camostat_1E10</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1517,11 +1415,6 @@
         </is>
       </c>
       <c r="F31" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1533,8 +1426,10 @@
           <t>SMN-C3_1E11</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>1</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1552,11 +1447,6 @@
         </is>
       </c>
       <c r="F32" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1568,8 +1458,10 @@
           <t>Valsartan_1F02</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1578,20 +1470,15 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1603,30 +1490,27 @@
           <t>Amiodarone_1F03</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>1</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>**</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -1638,8 +1522,10 @@
           <t>Cyclosporine_1F04</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
-        <v>1</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1648,7 +1534,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1657,11 +1543,6 @@
         </is>
       </c>
       <c r="F35" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1673,8 +1554,10 @@
           <t>Ivermectin_1F05</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
-        <v>1</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1683,20 +1566,15 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
         <is>
           <t>**</t>
         </is>
@@ -1708,8 +1586,10 @@
           <t>Indomethacin_1F06</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
-        <v>1</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1727,11 +1607,6 @@
         </is>
       </c>
       <c r="F37" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1743,8 +1618,10 @@
           <t>Captopril_1F07</t>
         </is>
       </c>
-      <c r="B38" s="1" t="n">
-        <v>1</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1762,11 +1639,6 @@
         </is>
       </c>
       <c r="F38" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1778,45 +1650,48 @@
           <t>Sorafenib_1F09</t>
         </is>
       </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>***</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ABT 239_1F10</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>ns</t>
@@ -1829,23 +1704,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ABT 239_1F10</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>1</v>
+          <t>Hydroxychloroquine_1F11</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1854,7 +1726,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1864,23 +1736,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Hydroxychloroquine_1F11</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>1</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1894,15 +1763,10 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
         <is>
           <t>**</t>
         </is>
@@ -1911,15 +1775,17 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>1</v>
+          <t>Benztropine_1G02</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1935,44 +1801,36 @@
       <c r="F43" t="inlineStr">
         <is>
           <t>ns</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>**</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Benztropine_1G02</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>1</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1981,51 +1839,54 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="n">
-        <v>1</v>
+          <t>Almitrine_1G04</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>***</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2034,11 +1895,6 @@
         </is>
       </c>
       <c r="F46" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2047,20 +1903,22 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Almitrine_1G04</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="n">
-        <v>1</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2069,11 +1927,6 @@
         </is>
       </c>
       <c r="F47" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2082,20 +1935,22 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="n">
-        <v>1</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2104,11 +1959,6 @@
         </is>
       </c>
       <c r="F48" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2117,33 +1967,30 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="n">
-        <v>1</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2152,20 +1999,22 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="n">
-        <v>1</v>
+          <t>Ferroquine_1G09</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2178,25 +2027,26 @@
           <t>ns</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n">
-        <v>0.5</v>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2205,11 +2055,6 @@
         </is>
       </c>
       <c r="F51" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2218,64 +2063,62 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="n">
-        <v>1</v>
+          <t>Abemaciclib_1G11</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>***</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2284,11 +2127,13 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Ferroquine_1G09</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="n">
-        <v>1</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2297,7 +2142,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2306,11 +2151,6 @@
         </is>
       </c>
       <c r="F54" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2319,11 +2159,13 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="n">
-        <v>1</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2341,11 +2183,6 @@
         </is>
       </c>
       <c r="F55" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2354,11 +2191,13 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Abemaciclib_1G11</t>
-        </is>
-      </c>
-      <c r="B56" s="1" t="n">
-        <v>1</v>
+          <t>Imatinib_1H05</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2367,7 +2206,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2376,11 +2215,6 @@
         </is>
       </c>
       <c r="F56" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2389,11 +2223,13 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="n">
-        <v>1</v>
+          <t>Fluphenazine_1H06</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2407,15 +2243,10 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2424,11 +2255,13 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="n">
-        <v>1</v>
+          <t>Haloperidol_1H07</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2442,15 +2275,10 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2459,11 +2287,13 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B59" s="1" t="n">
-        <v>1</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2477,15 +2307,10 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2494,11 +2319,13 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Imatinib_1H05</t>
-        </is>
-      </c>
-      <c r="B60" s="1" t="n">
-        <v>1</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2512,15 +2339,10 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2529,11 +2351,13 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Fluphenazine_1H06</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="n">
-        <v>1</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2551,11 +2375,6 @@
         </is>
       </c>
       <c r="F61" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2564,11 +2383,13 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Haloperidol_1H07</t>
-        </is>
-      </c>
-      <c r="B62" s="1" t="n">
-        <v>1</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2586,11 +2407,6 @@
         </is>
       </c>
       <c r="F62" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2599,15 +2415,17 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B63" s="1" t="n">
-        <v>1</v>
+          <t>Fluspirilene_2A02</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2621,11 +2439,6 @@
         </is>
       </c>
       <c r="F63" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2634,15 +2447,17 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B64" s="1" t="n">
-        <v>1</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2656,11 +2471,6 @@
         </is>
       </c>
       <c r="F64" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2669,15 +2479,17 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B65" s="1" t="n">
-        <v>1</v>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2691,11 +2503,6 @@
         </is>
       </c>
       <c r="F65" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2704,20 +2511,22 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B66" s="1" t="n">
-        <v>1</v>
+          <t>Doxorubicin_2A05</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2726,11 +2535,6 @@
         </is>
       </c>
       <c r="F66" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2739,20 +2543,22 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Fluspirilene_2A02</t>
-        </is>
-      </c>
-      <c r="B67" s="1" t="n">
-        <v>1</v>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2761,11 +2567,6 @@
         </is>
       </c>
       <c r="F67" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2774,46 +2575,45 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B68" s="1" t="n">
-        <v>1</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B69" s="1" t="n">
-        <v>1</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2822,7 +2622,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2831,11 +2631,6 @@
         </is>
       </c>
       <c r="F69" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2844,11 +2639,13 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Doxorubicin_2A05</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="n">
-        <v>1</v>
+          <t>Berbamine_2A09</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2857,20 +2654,15 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2879,20 +2671,22 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B71" s="1" t="n">
-        <v>1</v>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2901,11 +2695,6 @@
         </is>
       </c>
       <c r="F71" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2914,20 +2703,22 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B72" s="1" t="n">
-        <v>1</v>
+          <t>Fluconazole_2A11</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2937,23 +2728,24 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n">
-        <v>0.5</v>
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2963,15 +2755,10 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2980,11 +2767,13 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B74" s="1" t="n">
-        <v>1</v>
+          <t>Anidulafungin_2B03</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3002,11 +2791,6 @@
         </is>
       </c>
       <c r="F74" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3015,11 +2799,13 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Berbamine_2A09</t>
-        </is>
-      </c>
-      <c r="B75" s="1" t="n">
-        <v>1</v>
+          <t>Hanfangchin B_2B04</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3037,11 +2823,6 @@
         </is>
       </c>
       <c r="F75" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3050,15 +2831,17 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="n">
-        <v>1</v>
+          <t>Entacapone_2B05</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3072,11 +2855,6 @@
         </is>
       </c>
       <c r="F76" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3085,15 +2863,17 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Fluconazole_2A11</t>
-        </is>
-      </c>
-      <c r="B77" s="1" t="n">
-        <v>1</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3107,11 +2887,6 @@
         </is>
       </c>
       <c r="F77" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3120,20 +2895,22 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="n">
-        <v>1</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3142,11 +2919,6 @@
         </is>
       </c>
       <c r="F78" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3155,11 +2927,13 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Anidulafungin_2B03</t>
-        </is>
-      </c>
-      <c r="B79" s="1" t="n">
-        <v>1</v>
+          <t>Dabrafenib_2B08</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -3177,11 +2951,6 @@
         </is>
       </c>
       <c r="F79" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3190,11 +2959,13 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Hanfangchin B_2B04</t>
-        </is>
-      </c>
-      <c r="B80" s="1" t="n">
-        <v>1</v>
+          <t>Dapivirine_2B09</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -3212,11 +2983,6 @@
         </is>
       </c>
       <c r="F80" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3225,11 +2991,13 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Entacapone_2B05</t>
-        </is>
-      </c>
-      <c r="B81" s="1" t="n">
-        <v>1</v>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -3238,7 +3006,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3247,11 +3015,6 @@
         </is>
       </c>
       <c r="F81" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3260,11 +3023,13 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="n">
-        <v>1</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -3273,7 +3038,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3282,11 +3047,6 @@
         </is>
       </c>
       <c r="F82" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3295,11 +3055,13 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="n">
-        <v>1</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -3308,12 +3070,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3321,16 +3083,17 @@
           <t>ns</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="n">
-        <v>0.5</v>
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -3339,20 +3102,15 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3361,15 +3119,17 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Dabrafenib_2B08</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>1</v>
+          <t>Digitoxin_2C04</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3383,11 +3143,6 @@
         </is>
       </c>
       <c r="F85" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3396,11 +3151,13 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Dapivirine_2B09</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="n">
-        <v>1</v>
+          <t>Chlormidazole_2C05</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3418,11 +3175,6 @@
         </is>
       </c>
       <c r="F86" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3431,11 +3183,13 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="n">
-        <v>1</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3453,11 +3207,6 @@
         </is>
       </c>
       <c r="F87" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3466,11 +3215,13 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="n">
-        <v>1</v>
+          <t>Dutacatib_2C07</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3488,11 +3239,6 @@
         </is>
       </c>
       <c r="F88" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3501,11 +3247,13 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="n">
-        <v>1</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3524,27 +3272,24 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="n">
-        <v>1</v>
+          <t>Baricitinib_2C09</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3559,23 +3304,20 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Digitoxin_2C04</t>
-        </is>
-      </c>
-      <c r="B91" s="1" t="n">
-        <v>1</v>
+          <t>Eszopiclone_2C10</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3584,7 +3326,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3593,11 +3335,6 @@
         </is>
       </c>
       <c r="F91" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3606,11 +3343,13 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Chlormidazole_2C05</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="n">
-        <v>1</v>
+          <t>(+)-Mefloquine_2C11</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3628,11 +3367,6 @@
         </is>
       </c>
       <c r="F92" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3641,15 +3375,17 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="n">
-        <v>1</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3663,11 +3399,6 @@
         </is>
       </c>
       <c r="F93" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3676,15 +3407,17 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Dutacatib_2C07</t>
-        </is>
-      </c>
-      <c r="B94" s="1" t="n">
-        <v>1</v>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3698,11 +3431,6 @@
         </is>
       </c>
       <c r="F94" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3711,15 +3439,17 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="n">
-        <v>1</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3735,26 +3465,23 @@
       <c r="F95" t="inlineStr">
         <is>
           <t>ns</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>**</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Baricitinib_2C09</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="n">
-        <v>1</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3770,22 +3497,19 @@
       <c r="F96" t="inlineStr">
         <is>
           <t>ns</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>*</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Eszopiclone_2C10</t>
-        </is>
-      </c>
-      <c r="B97" s="1" t="n">
-        <v>1</v>
+          <t>Cloperastine_2D06</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3803,11 +3527,6 @@
         </is>
       </c>
       <c r="F97" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3816,15 +3535,17 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>(+)-Mefloquine_2C11</t>
-        </is>
-      </c>
-      <c r="B98" s="1" t="n">
-        <v>1</v>
+          <t>Clemastine_2D07</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3838,11 +3559,6 @@
         </is>
       </c>
       <c r="F98" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3851,20 +3567,22 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="n">
-        <v>1</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3873,11 +3591,6 @@
         </is>
       </c>
       <c r="F99" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3886,20 +3599,22 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B100" s="1" t="n">
-        <v>1</v>
+          <t>E 52862_2D09</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3908,11 +3623,6 @@
         </is>
       </c>
       <c r="F100" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3921,11 +3631,13 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B101" s="1" t="n">
-        <v>1</v>
+          <t>Doravirine_2D10</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3943,11 +3655,6 @@
         </is>
       </c>
       <c r="F101" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3956,11 +3663,13 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B102" s="1" t="n">
-        <v>1</v>
+          <t>Cycloheximide_2D11</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3969,7 +3678,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3978,11 +3687,6 @@
         </is>
       </c>
       <c r="F102" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3991,11 +3695,13 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Cloperastine_2D06</t>
-        </is>
-      </c>
-      <c r="B103" s="1" t="n">
-        <v>1</v>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -4014,23 +3720,20 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Clemastine_2D07</t>
-        </is>
-      </c>
-      <c r="B104" s="1" t="n">
-        <v>1</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -4039,7 +3742,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4048,11 +3751,6 @@
         </is>
       </c>
       <c r="F104" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4061,11 +3759,13 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B105" s="1" t="n">
-        <v>1</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -4074,7 +3774,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4083,11 +3783,6 @@
         </is>
       </c>
       <c r="F105" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4096,33 +3791,30 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>E 52862_2D09</t>
-        </is>
-      </c>
-      <c r="B106" s="1" t="n">
-        <v>1</v>
+          <t>(RS)-PPCC_2E05</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4131,11 +3823,13 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Doravirine_2D10</t>
-        </is>
-      </c>
-      <c r="B107" s="1" t="n">
-        <v>1</v>
+          <t>AZ3451_2E06</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -4153,11 +3847,6 @@
         </is>
       </c>
       <c r="F107" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4166,11 +3855,13 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Cycloheximide_2D11</t>
-        </is>
-      </c>
-      <c r="B108" s="1" t="n">
-        <v>1</v>
+          <t>ZINC4326719_2E07</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -4188,11 +3879,6 @@
         </is>
       </c>
       <c r="F108" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4201,11 +3887,13 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B109" s="1" t="n">
-        <v>1</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -4225,22 +3913,19 @@
       <c r="F109" t="inlineStr">
         <is>
           <t>ns</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>**</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B110" s="1" t="n">
-        <v>1</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -4258,11 +3943,6 @@
         </is>
       </c>
       <c r="F110" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4271,11 +3951,13 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B111" s="1" t="n">
-        <v>1</v>
+          <t>Anagliptin_2E10</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -4293,11 +3975,6 @@
         </is>
       </c>
       <c r="F111" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4306,11 +3983,13 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>(RS)-PPCC_2E05</t>
-        </is>
-      </c>
-      <c r="B112" s="1" t="n">
-        <v>1</v>
+          <t>Desmethyl ferroquine_2E11</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -4319,7 +3998,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4328,11 +4007,6 @@
         </is>
       </c>
       <c r="F112" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4341,15 +4015,17 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>AZ3451_2E06</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="n">
-        <v>1</v>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4363,11 +4039,6 @@
         </is>
       </c>
       <c r="F113" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4376,15 +4047,17 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>ZINC4326719_2E07</t>
-        </is>
-      </c>
-      <c r="B114" s="1" t="n">
-        <v>1</v>
+          <t>Aprepitant_2F03</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4398,11 +4071,6 @@
         </is>
       </c>
       <c r="F114" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4411,11 +4079,13 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B115" s="1" t="n">
-        <v>1</v>
+          <t>Danusertib_2F04</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -4433,11 +4103,6 @@
         </is>
       </c>
       <c r="F115" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4446,20 +4111,22 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B116" s="1" t="n">
-        <v>1</v>
+          <t>Apremilast_2F05</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4468,11 +4135,6 @@
         </is>
       </c>
       <c r="F116" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4481,15 +4143,17 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Anagliptin_2E10</t>
-        </is>
-      </c>
-      <c r="B117" s="1" t="n">
-        <v>1</v>
+          <t>(-)-Anisomycin_2F06</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4499,15 +4163,10 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4516,11 +4175,13 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Desmethyl ferroquine_2E11</t>
-        </is>
-      </c>
-      <c r="B118" s="1" t="n">
-        <v>1</v>
+          <t>Idelalisib_2F07</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -4538,11 +4199,6 @@
         </is>
       </c>
       <c r="F118" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4551,11 +4207,13 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B119" s="1" t="n">
-        <v>1</v>
+          <t>Darifenacin_2F08</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -4564,7 +4222,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4573,11 +4231,6 @@
         </is>
       </c>
       <c r="F119" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4586,11 +4239,13 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Aprepitant_2F03</t>
-        </is>
-      </c>
-      <c r="B120" s="1" t="n">
-        <v>1</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -4599,7 +4254,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4608,11 +4263,6 @@
         </is>
       </c>
       <c r="F120" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4621,11 +4271,13 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Danusertib_2F04</t>
-        </is>
-      </c>
-      <c r="B121" s="1" t="n">
-        <v>1</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -4643,11 +4295,6 @@
         </is>
       </c>
       <c r="F121" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4656,11 +4303,13 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Apremilast_2F05</t>
-        </is>
-      </c>
-      <c r="B122" s="1" t="n">
-        <v>1</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -4669,20 +4318,15 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4691,11 +4335,13 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>(-)-Anisomycin_2F06</t>
-        </is>
-      </c>
-      <c r="B123" s="1" t="n">
-        <v>1</v>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -4704,7 +4350,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4713,11 +4359,6 @@
         </is>
       </c>
       <c r="F123" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4726,11 +4367,13 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Idelalisib_2F07</t>
-        </is>
-      </c>
-      <c r="B124" s="1" t="n">
-        <v>1</v>
+          <t>Celecoxib_2G03</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -4748,11 +4391,6 @@
         </is>
       </c>
       <c r="F124" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4761,46 +4399,45 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Darifenacin_2F08</t>
-        </is>
-      </c>
-      <c r="B125" s="1" t="n">
-        <v>1</v>
+          <t>Cabozantinib_2G04</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B126" s="1" t="n">
-        <v>1</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -4818,11 +4455,6 @@
         </is>
       </c>
       <c r="F126" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4831,11 +4463,13 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B127" s="1" t="n">
-        <v>1</v>
+          <t>Bortezomib_2G06</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -4853,11 +4487,6 @@
         </is>
       </c>
       <c r="F127" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4866,20 +4495,22 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>1</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4889,23 +4520,20 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>1</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -4923,11 +4551,6 @@
         </is>
       </c>
       <c r="F129" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4936,15 +4559,17 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Celecoxib_2G03</t>
-        </is>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>1</v>
+          <t>Boceprevir_2G09</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4959,54 +4584,52 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Cabozantinib_2G04</t>
-        </is>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>1</v>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n"/>
-      <c r="B132" s="1" t="n">
-        <v>0.5</v>
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -5020,28 +4643,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B133" s="1" t="n">
-        <v>1</v>
+          <t>Darunavir_2H02</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -5059,11 +4679,6 @@
         </is>
       </c>
       <c r="F133" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5072,15 +4687,17 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Bortezomib_2G06</t>
-        </is>
-      </c>
-      <c r="B134" s="1" t="n">
-        <v>1</v>
+          <t>Brequinar_2H03</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5094,11 +4711,6 @@
         </is>
       </c>
       <c r="F134" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5107,46 +4719,45 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B135" s="1" t="n">
-        <v>1</v>
+          <t>Delanzomib_2H04</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
           <t>ns</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>***</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B136" s="1" t="n">
-        <v>1</v>
+          <t>Delavirdine_2H05</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -5155,7 +4766,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5164,11 +4775,6 @@
         </is>
       </c>
       <c r="F136" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5177,11 +4783,13 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Boceprevir_2G09</t>
-        </is>
-      </c>
-      <c r="B137" s="1" t="n">
-        <v>1</v>
+          <t>Indinavir_2H06</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -5201,26 +4809,23 @@
       <c r="F137" t="inlineStr">
         <is>
           <t>ns</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>*</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B138" s="1" t="n">
-        <v>1</v>
+          <t>Abacavir_2H07</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5235,45 +4840,37 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B139" s="1" t="n">
-        <v>1</v>
+          <t>Chlorothiazide_2H08</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>**</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5282,20 +4879,22 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Darunavir_2H02</t>
-        </is>
-      </c>
-      <c r="B140" s="1" t="n">
-        <v>1</v>
+          <t>Apixaban_2H09</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5304,11 +4903,6 @@
         </is>
       </c>
       <c r="F140" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5317,50 +4911,49 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Brequinar_2H03</t>
-        </is>
-      </c>
-      <c r="B141" s="1" t="n">
-        <v>1</v>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
           <t>**</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Delanzomib_2H04</t>
-        </is>
-      </c>
-      <c r="B142" s="1" t="n">
-        <v>1</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5370,15 +4963,10 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5387,11 +4975,13 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Delavirdine_2H05</t>
-        </is>
-      </c>
-      <c r="B143" s="1" t="n">
-        <v>1</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -5405,15 +4995,10 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5422,11 +5007,13 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Indinavir_2H06</t>
-        </is>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>1</v>
+          <t>Bemcentinib_1A04</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -5435,7 +5022,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5444,11 +5031,6 @@
         </is>
       </c>
       <c r="F144" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5457,11 +5039,13 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Abacavir_2H07</t>
-        </is>
-      </c>
-      <c r="B145" s="1" t="n">
-        <v>1</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -5481,22 +5065,19 @@
       <c r="F145" t="inlineStr">
         <is>
           <t>ns</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>*</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Chlorothiazide_2H08</t>
-        </is>
-      </c>
-      <c r="B146" s="1" t="n">
-        <v>1</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -5510,15 +5091,10 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5527,11 +5103,13 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Apixaban_2H09</t>
-        </is>
-      </c>
-      <c r="B147" s="1" t="n">
-        <v>1</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -5540,20 +5118,15 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5562,11 +5135,13 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B148" s="1" t="n">
-        <v>1</v>
+          <t>Ciclesonide_1A08</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -5575,37 +5150,34 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
           <t>ns</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>**</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B149" s="1" t="n">
-        <v>1</v>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5619,11 +5191,6 @@
         </is>
       </c>
       <c r="F149" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5632,11 +5199,13 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B150" s="1" t="n">
-        <v>1</v>
+          <t>Ethaverine_1A10</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -5654,11 +5223,6 @@
         </is>
       </c>
       <c r="F150" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5667,11 +5231,13 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Bemcentinib_1A04</t>
-        </is>
-      </c>
-      <c r="B151" s="1" t="n">
-        <v>1</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -5685,15 +5251,10 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5702,11 +5263,13 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B152" s="1" t="n">
-        <v>1</v>
+          <t>Chlorpromazine_1B02</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -5724,11 +5287,6 @@
         </is>
       </c>
       <c r="F152" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5737,50 +5295,49 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B153" s="1" t="n">
-        <v>1</v>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B154" s="1" t="n">
-        <v>1</v>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5794,11 +5351,6 @@
         </is>
       </c>
       <c r="F154" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5807,11 +5359,13 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Ciclesonide_1A08</t>
-        </is>
-      </c>
-      <c r="B155" s="1" t="n">
-        <v>1</v>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -5825,15 +5379,10 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5842,11 +5391,13 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B156" s="1" t="n">
-        <v>1</v>
+          <t>Drotaverine_1B07</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -5864,11 +5415,6 @@
         </is>
       </c>
       <c r="F156" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5877,11 +5423,13 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Ethaverine_1A10</t>
-        </is>
-      </c>
-      <c r="B157" s="1" t="n">
-        <v>1</v>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -5899,11 +5447,6 @@
         </is>
       </c>
       <c r="F157" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5912,11 +5455,13 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B158" s="1" t="n">
-        <v>1</v>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -5934,11 +5479,6 @@
         </is>
       </c>
       <c r="F158" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5947,11 +5487,13 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Chlorpromazine_1B02</t>
-        </is>
-      </c>
-      <c r="B159" s="1" t="n">
-        <v>1</v>
+          <t>Atazanavir_1B10</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -5969,11 +5511,6 @@
         </is>
       </c>
       <c r="F159" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5982,51 +5519,54 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Apilimod_1B03</t>
-        </is>
-      </c>
-      <c r="B160" s="1" t="n">
-        <v>1</v>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
           <t>***</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n"/>
-      <c r="B161" s="1" t="n">
-        <v>0.5</v>
-      </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6035,11 +5575,6 @@
         </is>
       </c>
       <c r="F161" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -6048,11 +5583,13 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B162" s="1" t="n">
-        <v>1</v>
+          <t>Apilimod_1B03</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -6061,37 +5598,34 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B163" s="1" t="n">
-        <v>1</v>
+          <t>Molnupiravir</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6106,401 +5640,11 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B164" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>Drotaverine_1B07</t>
-        </is>
-      </c>
-      <c r="B165" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B166" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B167" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>Atazanavir_1B10</t>
-        </is>
-      </c>
-      <c r="B168" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B169" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B170" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>Molnupiravir</t>
-        </is>
-      </c>
-      <c r="B171" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n"/>
-      <c r="B172" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n"/>
-      <c r="B173" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n"/>
-      <c r="B174" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
           <t>ns</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A171:A174"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/2022-07-28_Morphology_Assay_stars.xlsx
+++ b/Data/2022-07-28_Morphology_Assay_stars.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,27 +455,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Body length (µm)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Heart Rate (BPM)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Ejection fraction (%)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Number ISV (Count)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ISV area (µm^2)</t>
         </is>
@@ -466,10 +487,8 @@
           <t>Papaverine_1C02</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -478,15 +497,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>*</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -498,27 +522,30 @@
           <t>GSK-369796_1C03</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>*</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -530,27 +557,30 @@
           <t>Daclatasvir_1C04</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>*</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -562,27 +592,30 @@
           <t>Lonafarnib_1C05</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>**</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -594,27 +627,30 @@
           <t>Itraconazole_1C06</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>**</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -626,27 +662,30 @@
           <t>GSK 983_1C07</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>**</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -658,10 +697,8 @@
           <t>Tioguanine_1C08</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -679,6 +716,11 @@
         </is>
       </c>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -690,10 +732,8 @@
           <t>Tomivosertib_1C09</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -711,6 +751,11 @@
         </is>
       </c>
       <c r="F9" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -722,10 +767,8 @@
           <t>LY 2228820_1C10</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -743,6 +786,11 @@
         </is>
       </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -754,10 +802,8 @@
           <t>Control</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -775,6 +821,11 @@
         </is>
       </c>
       <c r="F11" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -786,10 +837,8 @@
           <t>Tigecycline_1C11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -807,6 +856,11 @@
         </is>
       </c>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -818,10 +872,8 @@
           <t>Digoxin_1D02</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -839,6 +891,11 @@
         </is>
       </c>
       <c r="F13" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -850,27 +907,30 @@
           <t>Amodiaquine_1D03</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>**</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -882,74 +942,74 @@
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Halofantrine_1D05</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Ravuconazole_1D06</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
+          <t>Halofantrine_1D05</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -958,7 +1018,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -967,6 +1027,11 @@
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -975,17 +1040,15 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Tizoxanide_1D07</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ravuconazole_1D06</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -995,10 +1058,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1007,13 +1075,11 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Valproic Acid_1D08</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Tizoxanide_1D07</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1031,6 +1097,11 @@
         </is>
       </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1039,17 +1110,15 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Simeprevir_1D09</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Valproic Acid_1D08</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1063,6 +1132,11 @@
         </is>
       </c>
       <c r="F20" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1071,30 +1145,33 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Favipiravir_1D10</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+          <t>Simeprevir_1D09</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1103,17 +1180,15 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Vidofludimus_1D11</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Favipiravir_1D10</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1127,6 +1202,11 @@
         </is>
       </c>
       <c r="F22" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1135,13 +1215,11 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Hydroxyprogesterone_1E02</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+          <t>Vidofludimus_1D11</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1159,6 +1237,11 @@
         </is>
       </c>
       <c r="F23" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1167,17 +1250,15 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Nafamostat_1E03</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Hydroxyprogesterone_1E02</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1191,6 +1272,11 @@
         </is>
       </c>
       <c r="F24" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1199,13 +1285,11 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Amuvatinib_1E04</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Nafamostat_1E03</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1214,7 +1298,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1223,6 +1307,11 @@
         </is>
       </c>
       <c r="F25" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1231,13 +1320,11 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Doxycycline_1E05</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+          <t>Amuvatinib_1E04</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1251,10 +1338,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1263,22 +1355,20 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Emetine_1E06</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Doxycycline_1E05</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1287,6 +1377,11 @@
         </is>
       </c>
       <c r="F27" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1295,13 +1390,11 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Triparanol_1E07</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Emetine_1E06</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1310,15 +1403,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>*</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1327,13 +1425,11 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Clomipramine_1E08</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
+          <t>Triparanol_1E07</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1347,10 +1443,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1359,22 +1460,20 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Sofosbuvir_1E09</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Clomipramine_1E08</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1383,6 +1482,11 @@
         </is>
       </c>
       <c r="F30" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1391,13 +1495,11 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Camostat_1E10</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Sofosbuvir_1E09</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1411,10 +1513,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1423,13 +1530,11 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>SMN-C3_1E11</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Camostat_1E10</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1447,6 +1552,11 @@
         </is>
       </c>
       <c r="F32" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1455,13 +1565,11 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Valsartan_1F02</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>SMN-C3_1E11</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1470,7 +1578,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1479,6 +1587,11 @@
         </is>
       </c>
       <c r="F33" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1487,118 +1600,125 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Amiodarone_1F03</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
+          <t>Valsartan_1F02</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Cyclosporine_1F04</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
+          <t>Amiodarone_1F03</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>*</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Ivermectin_1F05</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
+          <t>Cyclosporine_1F04</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Indomethacin_1F06</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ivermectin_1F05</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1608,20 +1728,23 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Captopril_1F07</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Indomethacin_1F06</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1639,6 +1762,11 @@
         </is>
       </c>
       <c r="F38" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1647,45 +1775,46 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Sorafenib_1F09</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
+          <t>Captopril_1F07</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ABT 239_1F10</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Sorafenib_1F09</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1694,39 +1823,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>Hydroxychloroquine_1F11</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1735,6 +1863,11 @@
         </is>
       </c>
       <c r="F41" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>**</t>
         </is>
@@ -1743,13 +1876,11 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>ABT 239_1F10</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1758,7 +1889,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1768,24 +1899,27 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Benztropine_1G02</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Hydroxychloroquine_1F11</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1795,74 +1929,85 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>ns</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>**</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Almitrine_1G04</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
+          <t>Benztropine_1G02</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1871,13 +2016,11 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1886,12 +2029,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1899,26 +2042,25 @@
           <t>ns</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1927,6 +2069,11 @@
         </is>
       </c>
       <c r="F47" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1935,30 +2082,33 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Almitrine_1G04</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>**</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1967,30 +2117,33 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1999,13 +2152,11 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Ferroquine_1G09</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2014,7 +2165,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2023,6 +2174,11 @@
         </is>
       </c>
       <c r="F50" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2031,45 +2187,42 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>*</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Abemaciclib_1G11</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2078,7 +2231,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2087,6 +2240,11 @@
         </is>
       </c>
       <c r="F52" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2095,17 +2253,15 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2120,20 +2276,19 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>ns</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2142,15 +2297,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>**</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2159,13 +2319,11 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ferroquine_1G09</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2183,6 +2341,11 @@
         </is>
       </c>
       <c r="F55" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2191,13 +2354,11 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Imatinib_1H05</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2206,7 +2367,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2215,6 +2376,11 @@
         </is>
       </c>
       <c r="F56" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2223,13 +2389,11 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Fluphenazine_1H06</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Abemaciclib_1G11</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2247,6 +2411,11 @@
         </is>
       </c>
       <c r="F57" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2255,13 +2424,11 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Haloperidol_1H07</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2275,10 +2442,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2287,13 +2459,11 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2307,10 +2477,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2319,13 +2494,11 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2339,10 +2512,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2351,13 +2529,11 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Imatinib_1H05</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2371,10 +2547,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2383,13 +2564,11 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Fluphenazine_1H06</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2407,6 +2586,11 @@
         </is>
       </c>
       <c r="F62" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2415,17 +2599,15 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Fluspirilene_2A02</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
+          <t>Haloperidol_1H07</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2439,6 +2621,11 @@
         </is>
       </c>
       <c r="F63" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2447,17 +2634,15 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2471,6 +2656,11 @@
         </is>
       </c>
       <c r="F64" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2479,17 +2669,15 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2503,6 +2691,11 @@
         </is>
       </c>
       <c r="F65" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2511,22 +2704,20 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Doxorubicin_2A05</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2535,6 +2726,11 @@
         </is>
       </c>
       <c r="F66" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2543,17 +2739,15 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2567,6 +2761,11 @@
         </is>
       </c>
       <c r="F67" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2575,45 +2774,46 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
+          <t>Fluspirilene_2A02</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2622,7 +2822,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2631,6 +2831,11 @@
         </is>
       </c>
       <c r="F69" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2639,13 +2844,11 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Berbamine_2A09</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2654,7 +2857,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2663,6 +2866,11 @@
         </is>
       </c>
       <c r="F70" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2671,13 +2879,11 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Doxorubicin_2A05</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2686,15 +2892,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2703,22 +2914,20 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Fluconazole_2A11</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2727,6 +2936,11 @@
         </is>
       </c>
       <c r="F72" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2735,22 +2949,20 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2760,24 +2972,23 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Anidulafungin_2B03</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2787,10 +2998,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2799,13 +3015,11 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Hanfangchin B_2B04</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2823,6 +3037,11 @@
         </is>
       </c>
       <c r="F75" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2831,17 +3050,15 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Entacapone_2B05</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Berbamine_2A09</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2855,6 +3072,11 @@
         </is>
       </c>
       <c r="F76" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2863,17 +3085,15 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2887,6 +3107,11 @@
         </is>
       </c>
       <c r="F77" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2895,22 +3120,20 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Fluconazole_2A11</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2919,6 +3142,11 @@
         </is>
       </c>
       <c r="F78" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2927,13 +3155,11 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Dabrafenib_2B08</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2951,6 +3177,11 @@
         </is>
       </c>
       <c r="F79" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2959,13 +3190,11 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Dapivirine_2B09</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Anidulafungin_2B03</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2983,6 +3212,11 @@
         </is>
       </c>
       <c r="F80" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2991,13 +3225,11 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Hanfangchin B_2B04</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -3015,6 +3247,11 @@
         </is>
       </c>
       <c r="F81" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3023,13 +3260,11 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Entacapone_2B05</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -3038,7 +3273,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3047,6 +3282,11 @@
         </is>
       </c>
       <c r="F82" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3055,13 +3295,11 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -3070,7 +3308,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3079,6 +3317,11 @@
         </is>
       </c>
       <c r="F83" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3087,13 +3330,11 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -3102,12 +3343,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3115,34 +3356,38 @@
           <t>ns</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Digitoxin_2C04</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3151,13 +3396,11 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Chlormidazole_2C05</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Dabrafenib_2B08</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3175,6 +3418,11 @@
         </is>
       </c>
       <c r="F86" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3183,13 +3431,11 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Dapivirine_2B09</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3207,6 +3453,11 @@
         </is>
       </c>
       <c r="F87" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3215,13 +3466,11 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Dutacatib_2C07</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3239,6 +3488,11 @@
         </is>
       </c>
       <c r="F88" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3247,13 +3501,11 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3272,20 +3524,23 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Baricitinib_2C09</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3304,24 +3559,27 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Eszopiclone_2C10</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3335,6 +3593,11 @@
         </is>
       </c>
       <c r="F91" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3343,13 +3606,11 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>(+)-Mefloquine_2C11</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Digitoxin_2C04</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3358,7 +3619,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3367,6 +3628,11 @@
         </is>
       </c>
       <c r="F92" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3375,17 +3641,15 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Chlormidazole_2C05</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3399,6 +3663,11 @@
         </is>
       </c>
       <c r="F93" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3407,17 +3676,15 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3431,6 +3698,11 @@
         </is>
       </c>
       <c r="F94" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3439,17 +3711,15 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Dutacatib_2C07</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3463,6 +3733,11 @@
         </is>
       </c>
       <c r="F95" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3471,45 +3746,46 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>**</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Cloperastine_2D06</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Baricitinib_2C09</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3529,23 +3805,26 @@
       <c r="F97" t="inlineStr">
         <is>
           <t>ns</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Clemastine_2D07</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Eszopiclone_2C10</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3559,6 +3838,11 @@
         </is>
       </c>
       <c r="F98" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3567,17 +3851,15 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>(+)-Mefloquine_2C11</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3591,6 +3873,11 @@
         </is>
       </c>
       <c r="F99" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3599,22 +3886,20 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>E 52862_2D09</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3623,6 +3908,11 @@
         </is>
       </c>
       <c r="F100" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3631,13 +3921,11 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Doravirine_2D10</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3646,7 +3934,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3655,6 +3943,11 @@
         </is>
       </c>
       <c r="F101" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3663,13 +3956,11 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Cycloheximide_2D11</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3687,6 +3978,11 @@
         </is>
       </c>
       <c r="F102" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3695,13 +3991,11 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3710,7 +4004,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3720,20 +4014,23 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Cloperastine_2D06</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3751,6 +4048,11 @@
         </is>
       </c>
       <c r="F104" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3759,13 +4061,11 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Clemastine_2D07</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3774,7 +4074,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3783,6 +4083,11 @@
         </is>
       </c>
       <c r="F105" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3791,22 +4096,20 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>(RS)-PPCC_2E05</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3815,6 +4118,11 @@
         </is>
       </c>
       <c r="F106" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3823,13 +4131,11 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>AZ3451_2E06</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>E 52862_2D09</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3838,15 +4144,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3855,13 +4166,11 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>ZINC4326719_2E07</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Doravirine_2D10</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3879,6 +4188,11 @@
         </is>
       </c>
       <c r="F108" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3887,13 +4201,11 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Cycloheximide_2D11</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3911,6 +4223,11 @@
         </is>
       </c>
       <c r="F109" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3919,13 +4236,11 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3945,19 +4260,22 @@
       <c r="F110" t="inlineStr">
         <is>
           <t>ns</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Anagliptin_2E10</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3975,6 +4293,11 @@
         </is>
       </c>
       <c r="F111" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3983,13 +4306,11 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Desmethyl ferroquine_2E11</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -4007,6 +4328,11 @@
         </is>
       </c>
       <c r="F112" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4015,30 +4341,33 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>(RS)-PPCC_2E05</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>**</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4047,17 +4376,15 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Aprepitant_2F03</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>AZ3451_2E06</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4071,6 +4398,11 @@
         </is>
       </c>
       <c r="F114" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4079,13 +4411,11 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Danusertib_2F04</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>ZINC4326719_2E07</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -4103,6 +4433,11 @@
         </is>
       </c>
       <c r="F115" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4111,22 +4446,20 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Apremilast_2F05</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4135,6 +4468,11 @@
         </is>
       </c>
       <c r="F116" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4143,17 +4481,15 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>(-)-Anisomycin_2F06</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4163,10 +4499,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4175,13 +4516,11 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Idelalisib_2F07</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Anagliptin_2E10</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -4199,6 +4538,11 @@
         </is>
       </c>
       <c r="F118" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4207,13 +4551,11 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Darifenacin_2F08</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Desmethyl ferroquine_2E11</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -4231,6 +4573,11 @@
         </is>
       </c>
       <c r="F119" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4239,13 +4586,11 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -4254,7 +4599,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4263,6 +4608,11 @@
         </is>
       </c>
       <c r="F120" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4271,13 +4621,11 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Aprepitant_2F03</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -4286,7 +4634,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4295,6 +4643,11 @@
         </is>
       </c>
       <c r="F121" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4303,13 +4656,11 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Danusertib_2F04</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -4327,6 +4678,11 @@
         </is>
       </c>
       <c r="F122" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4335,13 +4691,11 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Apremilast_2F05</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -4350,15 +4704,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4367,30 +4726,33 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Celecoxib_2G03</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
+          <t>(-)-Anisomycin_2F06</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4399,45 +4761,46 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Cabozantinib_2G04</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
+          <t>Idelalisib_2F07</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Darifenacin_2F08</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -4455,6 +4818,11 @@
         </is>
       </c>
       <c r="F126" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4463,13 +4831,11 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Bortezomib_2G06</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -4487,6 +4853,11 @@
         </is>
       </c>
       <c r="F127" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4495,22 +4866,20 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4520,20 +4889,23 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -4551,6 +4923,11 @@
         </is>
       </c>
       <c r="F129" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4559,13 +4936,11 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Boceprevir_2G09</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -4584,26 +4959,29 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
+          <t>Celecoxib_2G03</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>ns</t>
@@ -4615,6 +4993,11 @@
         </is>
       </c>
       <c r="F131" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4623,81 +5006,81 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
+          <t>Cabozantinib_2G04</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
         <is>
           <t>**</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>Darunavir_2H02</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Brequinar_2H03</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4711,6 +5094,11 @@
         </is>
       </c>
       <c r="F134" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4719,13 +5107,11 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Delanzomib_2H04</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+          <t>Bortezomib_2G06</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -4734,7 +5120,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4743,6 +5129,11 @@
         </is>
       </c>
       <c r="F135" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4751,45 +5142,46 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Delavirdine_2H05</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
           <t>ns</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Indinavir_2H06</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -4807,6 +5199,11 @@
         </is>
       </c>
       <c r="F137" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4815,13 +5212,11 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Abacavir_2H07</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Boceprevir_2G09</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -4839,6 +5234,11 @@
         </is>
       </c>
       <c r="F138" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -4847,22 +5247,20 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Chlorothiazide_2H08</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4871,6 +5269,11 @@
         </is>
       </c>
       <c r="F139" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4879,22 +5282,20 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Apixaban_2H09</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4903,6 +5304,11 @@
         </is>
       </c>
       <c r="F140" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4911,22 +5317,20 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Darunavir_2H02</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4936,29 +5340,32 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
+          <t>Brequinar_2H03</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4967,6 +5374,11 @@
         </is>
       </c>
       <c r="F142" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4975,17 +5387,15 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Delanzomib_2H04</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4995,10 +5405,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5007,13 +5422,11 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Bemcentinib_1A04</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Delavirdine_2H05</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -5022,15 +5435,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
           <t>*</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="F144" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5039,13 +5457,11 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Indinavir_2H06</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -5063,6 +5479,11 @@
         </is>
       </c>
       <c r="F145" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5071,13 +5492,11 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Abacavir_2H07</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -5097,19 +5516,22 @@
       <c r="F146" t="inlineStr">
         <is>
           <t>ns</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Chlorothiazide_2H08</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -5118,15 +5540,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5135,13 +5562,11 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Ciclesonide_1A08</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Apixaban_2H09</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -5150,15 +5575,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
           <t>**</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="F148" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5167,13 +5597,11 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -5187,29 +5615,32 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
           <t>ns</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Ethaverine_1A10</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5223,6 +5654,11 @@
         </is>
       </c>
       <c r="F150" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5231,13 +5667,11 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -5255,6 +5689,11 @@
         </is>
       </c>
       <c r="F151" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5263,13 +5702,11 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Chlorpromazine_1B02</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Bemcentinib_1A04</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -5283,10 +5720,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5295,49 +5737,50 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5347,10 +5790,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5359,13 +5807,11 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -5379,10 +5825,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5391,13 +5842,11 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Drotaverine_1B07</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ciclesonide_1A08</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -5411,10 +5860,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5423,13 +5877,11 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -5447,6 +5899,11 @@
         </is>
       </c>
       <c r="F157" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5455,13 +5912,11 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ethaverine_1A10</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -5479,6 +5934,11 @@
         </is>
       </c>
       <c r="F158" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5487,13 +5947,11 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Atazanavir_1B10</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -5511,6 +5969,11 @@
         </is>
       </c>
       <c r="F159" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5519,13 +5982,11 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Chlorpromazine_1B02</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -5543,6 +6004,11 @@
         </is>
       </c>
       <c r="F160" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5551,27 +6017,25 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
+          <t>Apilimod_1B03</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5579,34 +6043,38 @@
           <t>ns</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>Apilimod_1B03</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
+      <c r="A162" s="1" t="n"/>
+      <c r="B162" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C162" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="E162" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5615,36 +6083,459 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>Drotaverine_1B07</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>Atazanavir_1B10</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
           <t>Molnupiravir</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B172" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n"/>
+      <c r="B173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n"/>
+      <c r="B174" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n"/>
+      <c r="B175" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A172:A175"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>